--- a/Code/Results/Cases/Case_9_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.308284468497106</v>
+        <v>2.247815389011748</v>
       </c>
       <c r="C2">
-        <v>0.6362400011535954</v>
+        <v>0.6724725749598974</v>
       </c>
       <c r="D2">
-        <v>0.04814591916277067</v>
+        <v>0.05079345805189206</v>
       </c>
       <c r="E2">
-        <v>1.37408670394953</v>
+        <v>1.370462882679689</v>
       </c>
       <c r="F2">
-        <v>0.4620068761187284</v>
+        <v>0.444628825011165</v>
       </c>
       <c r="G2">
-        <v>0.3564095601658863</v>
+        <v>0.3224730683898116</v>
       </c>
       <c r="H2">
-        <v>0.01341759070098708</v>
+        <v>0.01300765390418046</v>
       </c>
       <c r="I2">
-        <v>0.00741212798239177</v>
+        <v>0.00700790347293978</v>
       </c>
       <c r="J2">
-        <v>0.2637577882384647</v>
+        <v>0.3013587558191517</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1209617635201568</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.032095606682633</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7973566804230074</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.258330446011598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8261132437943246</v>
+      </c>
+      <c r="S2">
+        <v>1.203917115168764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.011219250523823</v>
+        <v>1.965305844614619</v>
       </c>
       <c r="C3">
-        <v>0.5679712270862183</v>
+        <v>0.5932798756836064</v>
       </c>
       <c r="D3">
-        <v>0.04246250367823023</v>
+        <v>0.04449283582069086</v>
       </c>
       <c r="E3">
-        <v>1.200841526023751</v>
+        <v>1.198209466928844</v>
       </c>
       <c r="F3">
-        <v>0.4200867917754891</v>
+        <v>0.4067320118740554</v>
       </c>
       <c r="G3">
-        <v>0.3230397615223666</v>
+        <v>0.2926380236006025</v>
       </c>
       <c r="H3">
-        <v>0.01011884473821148</v>
+        <v>0.009845040937383769</v>
       </c>
       <c r="I3">
-        <v>0.005493381856561452</v>
+        <v>0.005351309992088105</v>
       </c>
       <c r="J3">
-        <v>0.2520297930791315</v>
+        <v>0.2902082601652154</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1256436445244944</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02928827631091657</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7868394552779776</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.162747624191468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8075520161826546</v>
+      </c>
+      <c r="S3">
+        <v>1.120848615560192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.828048240471844</v>
+        <v>1.790773792258136</v>
       </c>
       <c r="C4">
-        <v>0.5262868410237047</v>
+        <v>0.5450786369926277</v>
       </c>
       <c r="D4">
-        <v>0.03897621557682385</v>
+        <v>0.04063802805821837</v>
       </c>
       <c r="E4">
-        <v>1.094614887818821</v>
+        <v>1.09255787062942</v>
       </c>
       <c r="F4">
-        <v>0.3947466474381258</v>
+        <v>0.383741468705125</v>
       </c>
       <c r="G4">
-        <v>0.3028602021061246</v>
+        <v>0.2745926539453407</v>
       </c>
       <c r="H4">
-        <v>0.008262757363474066</v>
+        <v>0.008061966828429967</v>
       </c>
       <c r="I4">
-        <v>0.004455571252673263</v>
+        <v>0.00445099911073088</v>
       </c>
       <c r="J4">
-        <v>0.245052205289312</v>
+        <v>0.2834113094567741</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1286365121633608</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02806551030201554</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7810937683560866</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.105175584170667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7969720387410248</v>
+      </c>
+      <c r="S4">
+        <v>1.070568701816811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.752078809723059</v>
+        <v>1.718271604783553</v>
       </c>
       <c r="C5">
-        <v>0.5101737228282559</v>
+        <v>0.5263822878226563</v>
       </c>
       <c r="D5">
-        <v>0.03759980278888975</v>
+        <v>0.03911466598034252</v>
       </c>
       <c r="E5">
-        <v>1.051331234633977</v>
+        <v>1.049502004720424</v>
       </c>
       <c r="F5">
-        <v>0.3841315944151091</v>
+        <v>0.3740634396952132</v>
       </c>
       <c r="G5">
-        <v>0.294314584605246</v>
+        <v>0.2669220319694148</v>
       </c>
       <c r="H5">
-        <v>0.007543956779973549</v>
+        <v>0.007370583869581171</v>
       </c>
       <c r="I5">
-        <v>0.00411801407321688</v>
+        <v>0.004177118689538517</v>
       </c>
       <c r="J5">
-        <v>0.2420600082662929</v>
+        <v>0.2804488098275755</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1297461253330461</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02763473841321407</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7794004907180749</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.08071759862176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7933549660785886</v>
+      </c>
+      <c r="S5">
+        <v>1.049021952043447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.738072717275685</v>
+        <v>1.704860203636002</v>
       </c>
       <c r="C6">
-        <v>0.50850779495903</v>
+        <v>0.5243212006607223</v>
       </c>
       <c r="D6">
-        <v>0.03742490470841631</v>
+        <v>0.03891631054835898</v>
       </c>
       <c r="E6">
-        <v>1.044125849904887</v>
+        <v>1.042334988916792</v>
       </c>
       <c r="F6">
-        <v>0.3819087571989073</v>
+        <v>0.3720050771318597</v>
       </c>
       <c r="G6">
-        <v>0.29241966024059</v>
+        <v>0.2651899329965488</v>
       </c>
       <c r="H6">
-        <v>0.007425079431185144</v>
+        <v>0.007256218221607158</v>
       </c>
       <c r="I6">
-        <v>0.004135798613483566</v>
+        <v>0.004222610693692452</v>
       </c>
       <c r="J6">
-        <v>0.2413197628513117</v>
+        <v>0.2797085372099559</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.129762373167619</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02750075748504877</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7797133229694921</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.075137501197744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7933740635550279</v>
+      </c>
+      <c r="S6">
+        <v>1.043961710044201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.823243860847327</v>
+        <v>1.78480017820246</v>
       </c>
       <c r="C7">
-        <v>0.5288264116661594</v>
+        <v>0.5470605612943586</v>
       </c>
       <c r="D7">
-        <v>0.03910452089655081</v>
+        <v>0.04086582772055891</v>
       </c>
       <c r="E7">
-        <v>1.093979236835253</v>
+        <v>1.091885725676093</v>
       </c>
       <c r="F7">
-        <v>0.3933297842669745</v>
+        <v>0.3815662189960847</v>
       </c>
       <c r="G7">
-        <v>0.3014315776495522</v>
+        <v>0.2762413604214373</v>
       </c>
       <c r="H7">
-        <v>0.008247837018835885</v>
+        <v>0.008043599256793432</v>
       </c>
       <c r="I7">
-        <v>0.004632922653708071</v>
+        <v>0.00466913779565381</v>
       </c>
       <c r="J7">
-        <v>0.2443381150919279</v>
+        <v>0.2782073970403545</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1280521597153133</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0277878819089139</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.78267912514778</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.10065035589281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7991936202900618</v>
+      </c>
+      <c r="S7">
+        <v>1.063589075129244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.200955880114407</v>
+        <v>2.141370736119143</v>
       </c>
       <c r="C8">
-        <v>0.616337302545503</v>
+        <v>0.6468418729416499</v>
       </c>
       <c r="D8">
-        <v>0.04638161661798534</v>
+        <v>0.04915269259611676</v>
       </c>
       <c r="E8">
-        <v>1.314241143278423</v>
+        <v>1.310830491941346</v>
       </c>
       <c r="F8">
-        <v>0.4457727438542776</v>
+        <v>0.4271853349052677</v>
       </c>
       <c r="G8">
-        <v>0.3430891938649836</v>
+        <v>0.320569381099574</v>
       </c>
       <c r="H8">
-        <v>0.01223515023287264</v>
+        <v>0.01185953538441392</v>
       </c>
       <c r="I8">
-        <v>0.006935237246248782</v>
+        <v>0.006663703539765642</v>
       </c>
       <c r="J8">
-        <v>0.2587734559893562</v>
+        <v>0.2819146058812834</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1215809979803062</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03042923445462797</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7957737118621182</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.219558992156351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8238922381917035</v>
+      </c>
+      <c r="S8">
+        <v>1.161042160446272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.942664271877163</v>
+        <v>2.843622023751266</v>
       </c>
       <c r="C9">
-        <v>0.7850714471807407</v>
+        <v>0.8431971096322854</v>
       </c>
       <c r="D9">
-        <v>0.06042823796774144</v>
+        <v>0.06489721255946534</v>
       </c>
       <c r="E9">
-        <v>1.748243548844897</v>
+        <v>1.742066707790713</v>
       </c>
       <c r="F9">
-        <v>0.5544775021197736</v>
+        <v>0.5243273441577045</v>
       </c>
       <c r="G9">
-        <v>0.4299688276684464</v>
+        <v>0.4012651401023675</v>
       </c>
       <c r="H9">
-        <v>0.02157575248718868</v>
+        <v>0.02078182602035095</v>
       </c>
       <c r="I9">
-        <v>0.01242274247401021</v>
+        <v>0.01127901988240243</v>
       </c>
       <c r="J9">
-        <v>0.290224594283103</v>
+        <v>0.3067468275527716</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1110786413163112</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04035262493682801</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8244058090573674</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.470258029745395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8737791165753634</v>
+      </c>
+      <c r="S9">
+        <v>1.375571459143714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.469648766330693</v>
+        <v>3.33368782521103</v>
       </c>
       <c r="C10">
-        <v>0.9075319380241069</v>
+        <v>0.9820810228664243</v>
       </c>
       <c r="D10">
-        <v>0.07179747377898593</v>
+        <v>0.07817399436583372</v>
       </c>
       <c r="E10">
-        <v>1.966919545208782</v>
+        <v>1.958439147763968</v>
       </c>
       <c r="F10">
-        <v>0.6291361478430133</v>
+        <v>0.5857310775796591</v>
       </c>
       <c r="G10">
-        <v>0.4878136873927161</v>
+        <v>0.4733139251352867</v>
       </c>
       <c r="H10">
-        <v>0.02885305053000842</v>
+        <v>0.02766818735218735</v>
       </c>
       <c r="I10">
-        <v>0.01734843101036798</v>
+        <v>0.01539888889604413</v>
       </c>
       <c r="J10">
-        <v>0.3107387456264803</v>
+        <v>0.2972281769816334</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1025116665622612</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04849409302087082</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8564717214004958</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.636282643687707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9257618568438204</v>
+      </c>
+      <c r="S10">
+        <v>1.499912820069255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.589336349880512</v>
+        <v>3.436203347818378</v>
       </c>
       <c r="C11">
-        <v>0.9281898611119743</v>
+        <v>0.9941203746631118</v>
       </c>
       <c r="D11">
-        <v>0.08571470802309022</v>
+        <v>0.09406496717791413</v>
       </c>
       <c r="E11">
-        <v>1.275101347561886</v>
+        <v>1.267456951275449</v>
       </c>
       <c r="F11">
-        <v>0.5985015193183258</v>
+        <v>0.5471181058740271</v>
       </c>
       <c r="G11">
-        <v>0.4479480490485912</v>
+        <v>0.4747385747632791</v>
       </c>
       <c r="H11">
-        <v>0.04393731618962349</v>
+        <v>0.04272757799800431</v>
       </c>
       <c r="I11">
-        <v>0.01893450093829774</v>
+        <v>0.01679679656184696</v>
       </c>
       <c r="J11">
-        <v>0.2878250362402213</v>
+        <v>0.2313061840055326</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0917445160435264</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04327651266073929</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9310277175719506</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.503929153534187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.015694531574624</v>
+      </c>
+      <c r="S11">
+        <v>1.345347877220036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.584262033712719</v>
+        <v>3.429275427498567</v>
       </c>
       <c r="C12">
-        <v>0.915409367827607</v>
+        <v>0.972754885997432</v>
       </c>
       <c r="D12">
-        <v>0.09537466608485801</v>
+        <v>0.1046353141580738</v>
       </c>
       <c r="E12">
-        <v>0.7774639360581119</v>
+        <v>0.7710190048312029</v>
       </c>
       <c r="F12">
-        <v>0.559303097372073</v>
+        <v>0.5071253083034222</v>
       </c>
       <c r="G12">
-        <v>0.4055384604478434</v>
+        <v>0.4510516900351291</v>
       </c>
       <c r="H12">
-        <v>0.07964231963673996</v>
+        <v>0.07848941441246637</v>
       </c>
       <c r="I12">
-        <v>0.01896763707592442</v>
+        <v>0.01678358622577125</v>
       </c>
       <c r="J12">
-        <v>0.2655685713329774</v>
+        <v>0.1973532004649954</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08577596722513725</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03811294574056667</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9876800965307098</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.367457579871541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.078466997218669</v>
+      </c>
+      <c r="S12">
+        <v>1.209286595905326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.477073393587091</v>
+        <v>3.335476316970244</v>
       </c>
       <c r="C13">
-        <v>0.8807432774491986</v>
+        <v>0.9308443099990882</v>
       </c>
       <c r="D13">
-        <v>0.1024336374781711</v>
+        <v>0.1113958034638074</v>
       </c>
       <c r="E13">
-        <v>0.4002832175203679</v>
+        <v>0.3952329606860303</v>
       </c>
       <c r="F13">
-        <v>0.5093397503706356</v>
+        <v>0.4633724020110463</v>
       </c>
       <c r="G13">
-        <v>0.3567956876922835</v>
+        <v>0.3980275085837803</v>
       </c>
       <c r="H13">
-        <v>0.1325152397432703</v>
+        <v>0.1314850099840754</v>
       </c>
       <c r="I13">
-        <v>0.01807875399556202</v>
+        <v>0.01605285230818243</v>
       </c>
       <c r="J13">
-        <v>0.2414996742823234</v>
+        <v>0.1858982151086579</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08225035103626688</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03256161214607012</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.035394502484891</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.213688790138065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.12279576154782</v>
+      </c>
+      <c r="S13">
+        <v>1.077394317447613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.355215424158757</v>
+        <v>3.229524715693231</v>
       </c>
       <c r="C14">
-        <v>0.8476794358674056</v>
+        <v>0.8932641299428212</v>
       </c>
       <c r="D14">
-        <v>0.1062557378528055</v>
+        <v>0.1144234767076995</v>
       </c>
       <c r="E14">
-        <v>0.2091742109018497</v>
+        <v>0.2050760025792968</v>
       </c>
       <c r="F14">
-        <v>0.4695877929840506</v>
+        <v>0.4307083672976404</v>
       </c>
       <c r="G14">
-        <v>0.3200214125648131</v>
+        <v>0.3495595510103442</v>
       </c>
       <c r="H14">
-        <v>0.1799972298290982</v>
+        <v>0.1790726975213346</v>
       </c>
       <c r="I14">
-        <v>0.01714102499337145</v>
+        <v>0.01532410240121784</v>
       </c>
       <c r="J14">
-        <v>0.2238731816188562</v>
+        <v>0.1858652884899641</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08065146959446601</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02855107934207446</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.065312556753824</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.098759854522598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.145808798722513</v>
+      </c>
+      <c r="S14">
+        <v>0.9857690909117309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.302568695571381</v>
+        <v>3.183653451693829</v>
       </c>
       <c r="C15">
-        <v>0.8360827855480863</v>
+        <v>0.8807336432237776</v>
       </c>
       <c r="D15">
-        <v>0.106617333477061</v>
+        <v>0.1143439036915623</v>
       </c>
       <c r="E15">
-        <v>0.1716806350517075</v>
+        <v>0.1678489321964243</v>
       </c>
       <c r="F15">
-        <v>0.4572024098229619</v>
+        <v>0.4212599237147145</v>
       </c>
       <c r="G15">
-        <v>0.3091985553529071</v>
+        <v>0.3323891042915363</v>
       </c>
       <c r="H15">
-        <v>0.1918887514088254</v>
+        <v>0.1910058797707563</v>
       </c>
       <c r="I15">
-        <v>0.0168025555681135</v>
+        <v>0.01510165498932459</v>
       </c>
       <c r="J15">
-        <v>0.2189653383989452</v>
+        <v>0.1891463378301452</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08055809689412463</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02738996561850549</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.070994333621641</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.065506258235558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.147914004461981</v>
+      </c>
+      <c r="S15">
+        <v>0.9617572888024881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.098244665426819</v>
+        <v>3.004100382821036</v>
       </c>
       <c r="C16">
-        <v>0.7930600577317364</v>
+        <v>0.8379932790123519</v>
       </c>
       <c r="D16">
-        <v>0.1000855158006715</v>
+        <v>0.1057785117958474</v>
       </c>
       <c r="E16">
-        <v>0.1684239388774493</v>
+        <v>0.1650983015604766</v>
       </c>
       <c r="F16">
-        <v>0.435324259542071</v>
+        <v>0.4097327981906957</v>
       </c>
       <c r="G16">
-        <v>0.2944571912098866</v>
+        <v>0.28891479883508</v>
       </c>
       <c r="H16">
-        <v>0.1768919453125335</v>
+        <v>0.1761735457454279</v>
       </c>
       <c r="I16">
-        <v>0.01497707748193733</v>
+        <v>0.01369271720898446</v>
       </c>
       <c r="J16">
-        <v>0.2149424848179677</v>
+        <v>0.2203372449529937</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08402863110823588</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02614516006175371</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.045301209666448</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.025650821968156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.106165957583798</v>
+      </c>
+      <c r="S16">
+        <v>0.952672087907473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.005894365433051</v>
+        <v>2.920287842668699</v>
       </c>
       <c r="C17">
-        <v>0.7776135745857289</v>
+        <v>0.8242171383377297</v>
       </c>
       <c r="D17">
-        <v>0.09306751206665353</v>
+        <v>0.09790900278223802</v>
       </c>
       <c r="E17">
-        <v>0.253802482626412</v>
+        <v>0.2504429922425828</v>
       </c>
       <c r="F17">
-        <v>0.4394776994992853</v>
+        <v>0.4172740802936588</v>
       </c>
       <c r="G17">
-        <v>0.3023778173201208</v>
+        <v>0.2841137041881581</v>
       </c>
       <c r="H17">
-        <v>0.1382899850437553</v>
+        <v>0.1376383178282339</v>
       </c>
       <c r="I17">
-        <v>0.0140936443824895</v>
+        <v>0.01300858467665122</v>
       </c>
       <c r="J17">
-        <v>0.2211347272116058</v>
+        <v>0.2421964424697762</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08776872278485115</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02709547003756718</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.010180389498828</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.055300889085885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.06426915632133</v>
+      </c>
+      <c r="S17">
+        <v>0.9916683570125144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.002275005105957</v>
+        <v>2.915330665332647</v>
       </c>
       <c r="C18">
-        <v>0.781981777049765</v>
+        <v>0.8329725679287208</v>
       </c>
       <c r="D18">
-        <v>0.08488863784162248</v>
+        <v>0.08946940491924238</v>
       </c>
       <c r="E18">
-        <v>0.488672624582648</v>
+        <v>0.484789693328608</v>
       </c>
       <c r="F18">
-        <v>0.4677563885995966</v>
+        <v>0.4449582686335134</v>
       </c>
       <c r="G18">
-        <v>0.3324093122414808</v>
+        <v>0.3065854522899087</v>
       </c>
       <c r="H18">
-        <v>0.08624955070202844</v>
+        <v>0.0855913680962459</v>
       </c>
       <c r="I18">
-        <v>0.01368671237488428</v>
+        <v>0.01260469144978327</v>
       </c>
       <c r="J18">
-        <v>0.237533558657816</v>
+        <v>0.2645792889713476</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09268855330959624</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0304126482170286</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9623120494336064</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.15325520403178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.014553633027361</v>
+      </c>
+      <c r="S18">
+        <v>1.086415831603716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.063417412060573</v>
+        <v>2.968585743104143</v>
       </c>
       <c r="C19">
-        <v>0.8077722262330269</v>
+        <v>0.8659147347491967</v>
       </c>
       <c r="D19">
-        <v>0.07698969596444272</v>
+        <v>0.08164629847768623</v>
       </c>
       <c r="E19">
-        <v>0.9248306533719273</v>
+        <v>0.9199230752331999</v>
       </c>
       <c r="F19">
-        <v>0.5122098166265445</v>
+        <v>0.4862251975076219</v>
       </c>
       <c r="G19">
-        <v>0.377575906676654</v>
+        <v>0.346437213434541</v>
       </c>
       <c r="H19">
-        <v>0.04383554897773934</v>
+        <v>0.04309731134078021</v>
       </c>
       <c r="I19">
-        <v>0.01420013986391666</v>
+        <v>0.01307597254408943</v>
       </c>
       <c r="J19">
-        <v>0.2604464971628033</v>
+        <v>0.2877816981370103</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09799039924226349</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03524978686219704</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9132886915742375</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.296993635423036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9667585101824869</v>
+      </c>
+      <c r="S19">
+        <v>1.218620287329458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.318801213210804</v>
+        <v>3.19781196334111</v>
       </c>
       <c r="C20">
-        <v>0.8839837495525273</v>
+        <v>0.956855294178979</v>
       </c>
       <c r="D20">
-        <v>0.06931939970741041</v>
+        <v>0.07482541805794796</v>
       </c>
       <c r="E20">
-        <v>1.904946654381618</v>
+        <v>1.897263004059198</v>
       </c>
       <c r="F20">
-        <v>0.605024574027631</v>
+        <v>0.5682454832108235</v>
       </c>
       <c r="G20">
-        <v>0.4680241693283449</v>
+        <v>0.4386893847410249</v>
       </c>
       <c r="H20">
-        <v>0.02678841954861477</v>
+        <v>0.02573577984384201</v>
       </c>
       <c r="I20">
-        <v>0.01657611961527294</v>
+        <v>0.01504932150416849</v>
       </c>
       <c r="J20">
-        <v>0.3030037828059022</v>
+        <v>0.3126727989084657</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1040966380527149</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04557373243949669</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8535363415630712</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.578020169760663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9155128012484255</v>
+      </c>
+      <c r="S20">
+        <v>1.46290067111255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.744793548028326</v>
+        <v>3.567098426705911</v>
       </c>
       <c r="C21">
-        <v>0.983915443400349</v>
+        <v>1.059051447434456</v>
       </c>
       <c r="D21">
-        <v>0.0765360157996966</v>
+        <v>0.08558064318945213</v>
       </c>
       <c r="E21">
-        <v>2.232384761151025</v>
+        <v>2.22160269294605</v>
       </c>
       <c r="F21">
-        <v>0.675563856434664</v>
+        <v>0.6118828149309081</v>
       </c>
       <c r="G21">
-        <v>0.5258827959664245</v>
+        <v>0.5689718004199449</v>
       </c>
       <c r="H21">
-        <v>0.03397732997810587</v>
+        <v>0.03243705913290151</v>
       </c>
       <c r="I21">
-        <v>0.02079858459760242</v>
+        <v>0.01836212036900164</v>
       </c>
       <c r="J21">
-        <v>0.3254005658176879</v>
+        <v>0.2388675644675544</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09753213227208235</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05196495849909866</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8690561946879427</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.747913253293774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9598446067235216</v>
+      </c>
+      <c r="S21">
+        <v>1.546387373102164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.021360820301993</v>
+        <v>3.804236403516256</v>
       </c>
       <c r="C22">
-        <v>1.043583685715817</v>
+        <v>1.118458989895686</v>
       </c>
       <c r="D22">
-        <v>0.08154243819434726</v>
+        <v>0.09312805139087033</v>
       </c>
       <c r="E22">
-        <v>2.395137722991493</v>
+        <v>2.382332282778819</v>
       </c>
       <c r="F22">
-        <v>0.7203203517980654</v>
+        <v>0.6376718723943782</v>
       </c>
       <c r="G22">
-        <v>0.5621716717660661</v>
+        <v>0.6624003057209507</v>
       </c>
       <c r="H22">
-        <v>0.03859238752728134</v>
+        <v>0.03671373508739872</v>
       </c>
       <c r="I22">
-        <v>0.02348152336743592</v>
+        <v>0.02032813786635135</v>
       </c>
       <c r="J22">
-        <v>0.339385453442631</v>
+        <v>0.194265935680356</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09332931946371836</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0562843985002317</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8808409670270265</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.854337486040635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9918600940744824</v>
+      </c>
+      <c r="S22">
+        <v>1.592076532434106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.878419265184675</v>
+        <v>3.685835876334636</v>
       </c>
       <c r="C23">
-        <v>1.008296595653349</v>
+        <v>1.084890340089288</v>
       </c>
       <c r="D23">
-        <v>0.0786889824043655</v>
+        <v>0.08861030627446098</v>
       </c>
       <c r="E23">
-        <v>2.308257424377032</v>
+        <v>2.296636691159392</v>
       </c>
       <c r="F23">
-        <v>0.6978868849380007</v>
+        <v>0.6274636226929573</v>
       </c>
       <c r="G23">
-        <v>0.5443158578430456</v>
+        <v>0.6044527785194163</v>
       </c>
       <c r="H23">
-        <v>0.03611087178190431</v>
+        <v>0.03442930787050802</v>
       </c>
       <c r="I23">
-        <v>0.02179823297391881</v>
+        <v>0.01898606006354076</v>
       </c>
       <c r="J23">
-        <v>0.332684100733772</v>
+        <v>0.22611192146924</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09607343419347991</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0546518144116348</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8723433672166294</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.802339948303199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9704293709888248</v>
+      </c>
+      <c r="S23">
+        <v>1.579167601466196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.32910311063074</v>
+        <v>3.207410437141959</v>
       </c>
       <c r="C24">
-        <v>0.880827041436163</v>
+        <v>0.9542058818611281</v>
       </c>
       <c r="D24">
-        <v>0.06819433422976573</v>
+        <v>0.07366560289808177</v>
       </c>
       <c r="E24">
-        <v>1.980811401770126</v>
+        <v>1.972962096657525</v>
       </c>
       <c r="F24">
-        <v>0.6120029939029905</v>
+        <v>0.5749028343656661</v>
       </c>
       <c r="G24">
-        <v>0.4754682930505254</v>
+        <v>0.4450449652785551</v>
       </c>
       <c r="H24">
-        <v>0.0272864821075407</v>
+        <v>0.026218667077333</v>
       </c>
       <c r="I24">
-        <v>0.0162377355833101</v>
+        <v>0.01459979546847645</v>
       </c>
       <c r="J24">
-        <v>0.3067639675092835</v>
+        <v>0.3169466098722324</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1053375352444554</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04672452785786874</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8452560059386656</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.601674858443602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9068221667401559</v>
+      </c>
+      <c r="S24">
+        <v>1.485239678931578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.735595196571694</v>
+        <v>2.649551252114463</v>
       </c>
       <c r="C25">
-        <v>0.7442708657409014</v>
+        <v>0.795886229365891</v>
       </c>
       <c r="D25">
-        <v>0.05689290156003324</v>
+        <v>0.06075465743577269</v>
       </c>
       <c r="E25">
-        <v>1.630403985141811</v>
+        <v>1.625087204621678</v>
       </c>
       <c r="F25">
-        <v>0.5223057349619395</v>
+        <v>0.4966361198178433</v>
       </c>
       <c r="G25">
-        <v>0.4037141352319793</v>
+        <v>0.372408539395721</v>
       </c>
       <c r="H25">
-        <v>0.01885064721515772</v>
+        <v>0.0181904064276206</v>
       </c>
       <c r="I25">
-        <v>0.01110502545880276</v>
+        <v>0.01032225945707932</v>
       </c>
       <c r="J25">
-        <v>0.2802657280487182</v>
+        <v>0.3050334949886064</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1133695122393537</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03684262824108941</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8190932341742752</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.393573908222692</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8619154767277877</v>
+      </c>
+      <c r="S25">
+        <v>1.31312742134449</v>
       </c>
     </row>
   </sheetData>
